--- a/AiBi.Web/Template/我的会员导入模板.xlsx
+++ b/AiBi.Web/Template/我的会员导入模板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work_AiBi\AiBi\AiBiTest\AiBi.Web\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B656693-B548-4F66-9D5E-F2FBA5978578}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F58FBF-2FBF-48B7-8963-A2BBA7D228B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A56FB354-52B8-4BB8-A085-9B4A0417AB25}"/>
   </bookViews>
@@ -72,7 +72,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>分组</t>
+    <t>分组（“/”分割，实例：总公司/第一分公司/市场部/北区）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -174,7 +174,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -188,9 +188,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -521,6 +518,7 @@
     <col min="7" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="20.375" customWidth="1"/>
     <col min="9" max="9" width="26.75" customWidth="1"/>
+    <col min="10" max="10" width="53.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -551,7 +549,7 @@
       <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
     </row>
